--- a/data/trans_orig/P36BPD03_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32366</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18016</v>
+        <v>18042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55109</v>
+        <v>53161</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07936782963462347</v>
+        <v>0.07936782963462348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04417956760523878</v>
+        <v>0.04424395035244846</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1351404321656348</v>
+        <v>0.1303624922922286</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>29518</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17836</v>
+        <v>17260</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46315</v>
+        <v>47835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08142756397915638</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04920246114833321</v>
+        <v>0.04761235994577123</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1277607721354045</v>
+        <v>0.1319542232102282</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -783,19 +783,19 @@
         <v>61884</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43395</v>
+        <v>43323</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87976</v>
+        <v>91460</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08033715779512059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05633471369906818</v>
+        <v>0.05624101105265526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1142091324608584</v>
+        <v>0.1187319014859455</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>107520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82676</v>
+        <v>83839</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>139609</v>
+        <v>137916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2636628923272871</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2027406297277667</v>
+        <v>0.2055911201988316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3423534409941932</v>
+        <v>0.338202030249155</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -833,19 +833,19 @@
         <v>94539</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72526</v>
+        <v>73202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115977</v>
+        <v>116730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.260788630889298</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2000656319003462</v>
+        <v>0.2019286056319194</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.319926807113402</v>
+        <v>0.3220035498545744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -854,19 +854,19 @@
         <v>202059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>168418</v>
+        <v>169826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>239668</v>
+        <v>240762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2623102409235423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2186378280069128</v>
+        <v>0.2204654917105292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3111345303025197</v>
+        <v>0.3125547463693694</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>182377</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150087</v>
+        <v>148341</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>216111</v>
+        <v>213960</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4472298070025413</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3680471044458113</v>
+        <v>0.3637651265017324</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5299519097831432</v>
+        <v>0.5246774020629396</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -904,19 +904,19 @@
         <v>180401</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153207</v>
+        <v>156330</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>206240</v>
+        <v>204748</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4976424952140677</v>
+        <v>0.4976424952140678</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4226269605751138</v>
+        <v>0.43124083261392</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5689192808192419</v>
+        <v>0.5648025818023681</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>179</v>
@@ -925,19 +925,19 @@
         <v>362779</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>321785</v>
+        <v>319533</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>405055</v>
+        <v>403942</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4709544385112105</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4177367767286925</v>
+        <v>0.4148137332206988</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5258376078730133</v>
+        <v>0.5243924596987163</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>85530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55984</v>
+        <v>62323</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114165</v>
+        <v>120643</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2097394710355482</v>
+        <v>0.2097394710355483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1372856238239495</v>
+        <v>0.1528295041283038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2799572842212473</v>
+        <v>0.2958440814722884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -975,19 +975,19 @@
         <v>58053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40787</v>
+        <v>40718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78217</v>
+        <v>80087</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1601413099174777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1125134757577217</v>
+        <v>0.1123225830681552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.215764717352936</v>
+        <v>0.2209211416457165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -996,19 +996,19 @@
         <v>143583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112119</v>
+        <v>112089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>183651</v>
+        <v>183805</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1863981627701266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1455514347311063</v>
+        <v>0.1455125950370444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.238412986785438</v>
+        <v>0.2386137296409042</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>26433</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15487</v>
+        <v>16338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>42612</v>
+        <v>43194</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05542764673658011</v>
+        <v>0.05542764673658012</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03247449316338009</v>
+        <v>0.03425981087132927</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08935301330486145</v>
+        <v>0.09057472616265114</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -1121,19 +1121,19 @@
         <v>22839</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14750</v>
+        <v>14555</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34467</v>
+        <v>35578</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04566730698706024</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02949361024890371</v>
+        <v>0.02910389313075604</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0689198156936123</v>
+        <v>0.07113990815819182</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -1142,19 +1142,19 @@
         <v>49271</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>36222</v>
+        <v>34846</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68918</v>
+        <v>67327</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05043150329735727</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03707495756416156</v>
+        <v>0.03566604845947777</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07054107000252964</v>
+        <v>0.06891196890883891</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>135098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111304</v>
+        <v>109549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160342</v>
+        <v>158322</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2832902044288276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2333953580920397</v>
+        <v>0.2297153983222327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.33622385394606</v>
+        <v>0.3319892474166756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -1192,19 +1192,19 @@
         <v>114704</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96182</v>
+        <v>96517</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135124</v>
+        <v>134759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2293590052084189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1923221226303982</v>
+        <v>0.192992181465457</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2701901093259897</v>
+        <v>0.2694592869004964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -1213,19 +1213,19 @@
         <v>249803</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>217731</v>
+        <v>218509</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>283858</v>
+        <v>282732</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2556837876370638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2228574827423727</v>
+        <v>0.2236533270267801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2905414722742402</v>
+        <v>0.2893886944134124</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>202631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175285</v>
+        <v>175760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>229213</v>
+        <v>231397</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4249014735844644</v>
+        <v>0.4249014735844645</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3675577491212711</v>
+        <v>0.368554322920755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4806405752861173</v>
+        <v>0.4852202495055815</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -1263,19 +1263,19 @@
         <v>250686</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228127</v>
+        <v>226200</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>273240</v>
+        <v>274968</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5012645373752773</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4561562627377596</v>
+        <v>0.4523014937472182</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5463623041329069</v>
+        <v>0.5498165624142395</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>372</v>
@@ -1284,19 +1284,19 @@
         <v>453318</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>418114</v>
+        <v>416670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491396</v>
+        <v>488670</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.463990360851549</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4279575817405768</v>
+        <v>0.4264794224543638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5029655232248234</v>
+        <v>0.5001753452104588</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>112728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90230</v>
+        <v>90822</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>141991</v>
+        <v>136900</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2363806752501278</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1892052786906797</v>
+        <v>0.1904467100688114</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2977430928537239</v>
+        <v>0.2870688166044911</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -1334,19 +1334,19 @@
         <v>111879</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91539</v>
+        <v>92111</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>131669</v>
+        <v>134479</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2237091504292435</v>
+        <v>0.2237091504292436</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1830378696285441</v>
+        <v>0.1841813879597559</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2632806089058571</v>
+        <v>0.2688994399508343</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>158</v>
@@ -1355,19 +1355,19 @@
         <v>224606</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>193578</v>
+        <v>194093</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>258170</v>
+        <v>260184</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.22989434821403</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1981350419106698</v>
+        <v>0.1986627721747555</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2642486160105969</v>
+        <v>0.2663093791829236</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>35444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24229</v>
+        <v>24070</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50714</v>
+        <v>48906</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0571941019362663</v>
+        <v>0.05719410193626628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03909728206231766</v>
+        <v>0.03884022680871364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08183381242665778</v>
+        <v>0.0789166864449561</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -1480,19 +1480,19 @@
         <v>23639</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16688</v>
+        <v>16709</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33160</v>
+        <v>34483</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03799601235592256</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02682323690091717</v>
+        <v>0.02685772456896033</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0533004487227461</v>
+        <v>0.05542596516384436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1501,19 +1501,19 @@
         <v>59083</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45030</v>
+        <v>46331</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74877</v>
+        <v>75606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04757634950019982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03626044155813976</v>
+        <v>0.03730750506877074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06029440277238644</v>
+        <v>0.06088165015391278</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>140689</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>118944</v>
+        <v>119448</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>163113</v>
+        <v>164625</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2270199354562777</v>
+        <v>0.2270199354562776</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1919321395827673</v>
+        <v>0.1927446328114704</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2632042404108231</v>
+        <v>0.2656438506264948</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>164</v>
@@ -1551,19 +1551,19 @@
         <v>118612</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>102555</v>
+        <v>102287</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>136563</v>
+        <v>137374</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1906521128627567</v>
+        <v>0.1906521128627568</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1648422897316103</v>
+        <v>0.1644120155533086</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2195056922842297</v>
+        <v>0.220809137457468</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>292</v>
@@ -1572,19 +1572,19 @@
         <v>259301</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>231435</v>
+        <v>229615</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>285715</v>
+        <v>284548</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2088005854069168</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1863618696763156</v>
+        <v>0.1848960606835887</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2300706641243434</v>
+        <v>0.229131238338159</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>296635</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>269907</v>
+        <v>272467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>321264</v>
+        <v>324992</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4786603001756711</v>
+        <v>0.478660300175671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4355308911027182</v>
+        <v>0.4396617445167293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5184024206958999</v>
+        <v>0.524418444063432</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>458</v>
@@ -1622,19 +1622,19 @@
         <v>333940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>313088</v>
+        <v>313874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>355283</v>
+        <v>354729</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5367611769055436</v>
+        <v>0.5367611769055438</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5032440925287497</v>
+        <v>0.5045079696770258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5710663318520945</v>
+        <v>0.5701757671753531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>728</v>
@@ -1643,19 +1643,19 @@
         <v>630575</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>596515</v>
+        <v>598651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>661217</v>
+        <v>667099</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5077673551442272</v>
+        <v>0.5077673551442271</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4803404462862793</v>
+        <v>0.4820606621353951</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5324414685070538</v>
+        <v>0.5371778747299782</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>146951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125393</v>
+        <v>124307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172951</v>
+        <v>173131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.237125662431785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2023380403188104</v>
+        <v>0.200586687832004</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2790789977947638</v>
+        <v>0.2793709248461052</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>194</v>
@@ -1693,19 +1693,19 @@
         <v>145948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126741</v>
+        <v>128391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164384</v>
+        <v>163981</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.234590697875777</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2037181321761192</v>
+        <v>0.2063708849559586</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2642231761819563</v>
+        <v>0.2635755712680675</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>311</v>
@@ -1714,19 +1714,19 @@
         <v>292899</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>264267</v>
+        <v>261377</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>323993</v>
+        <v>322894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2358557099486561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2127997048622655</v>
+        <v>0.2104725726333594</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2608934098051313</v>
+        <v>0.2600085980204929</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>35606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25404</v>
+        <v>25310</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51815</v>
+        <v>49516</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05082147955067768</v>
+        <v>0.05082147955067766</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03625967754878459</v>
+        <v>0.03612533536577923</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07395676392810006</v>
+        <v>0.07067503805055809</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -1839,19 +1839,19 @@
         <v>27850</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20745</v>
+        <v>20526</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38035</v>
+        <v>36818</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03785356528495672</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02819579559547615</v>
+        <v>0.02789833972002534</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0516969331520927</v>
+        <v>0.05004263352329104</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -1860,19 +1860,19 @@
         <v>63457</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50170</v>
+        <v>49669</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80687</v>
+        <v>78923</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04417898585260012</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03492864385393173</v>
+        <v>0.03458009240692288</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05617462569669555</v>
+        <v>0.0549470317317459</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>164986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142957</v>
+        <v>143726</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188642</v>
+        <v>188085</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2354871264183042</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2040450345738916</v>
+        <v>0.2051416702650805</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2692508075523259</v>
+        <v>0.26845599241623</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>205</v>
@@ -1910,19 +1910,19 @@
         <v>128422</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113923</v>
+        <v>112642</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>145622</v>
+        <v>144823</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1745490205136653</v>
+        <v>0.1745490205136654</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1548414575928188</v>
+        <v>0.1531007955932465</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1979270455421079</v>
+        <v>0.1968408073718073</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>366</v>
@@ -1931,19 +1931,19 @@
         <v>293408</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>265066</v>
+        <v>262713</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>322385</v>
+        <v>320406</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2042730872019644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1845409068865179</v>
+        <v>0.1829029354978478</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2244468721620728</v>
+        <v>0.2230687748941418</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>333651</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>309174</v>
+        <v>305400</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>361362</v>
+        <v>360148</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4762243297508</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4412881917663425</v>
+        <v>0.4359018117920496</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5157766884155215</v>
+        <v>0.5140442603200222</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>600</v>
@@ -1981,19 +1981,19 @@
         <v>384784</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>363482</v>
+        <v>363678</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>407442</v>
+        <v>406519</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5229914834781143</v>
+        <v>0.5229914834781144</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4940376220489577</v>
+        <v>0.4943039334712547</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5537876997530016</v>
+        <v>0.55253320565803</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>918</v>
@@ -2002,19 +2002,19 @@
         <v>718435</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>684454</v>
+        <v>681741</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>751344</v>
+        <v>751382</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5001796488210282</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4765221234976678</v>
+        <v>0.4746329090405517</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5230909367487903</v>
+        <v>0.5231178785453533</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>166373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>143094</v>
+        <v>144910</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191625</v>
+        <v>190824</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2374670642802182</v>
+        <v>0.2374670642802181</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2042403427828942</v>
+        <v>0.2068317766574693</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2735087819403011</v>
+        <v>0.2723655354937184</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>292</v>
@@ -2052,19 +2052,19 @@
         <v>194680</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175853</v>
+        <v>176422</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213430</v>
+        <v>213617</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2646059307232637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2390155453230557</v>
+        <v>0.239788972192196</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2900900356519077</v>
+        <v>0.2903440781311578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>445</v>
@@ -2073,19 +2073,19 @@
         <v>361054</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>332288</v>
+        <v>331250</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>391848</v>
+        <v>392804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2513682781244073</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2313409852710819</v>
+        <v>0.2306187793735104</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2728071511554521</v>
+        <v>0.2734733146160277</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>38222</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28391</v>
+        <v>28578</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50732</v>
+        <v>50111</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06291251348508999</v>
+        <v>0.06291251348508997</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0467311036788975</v>
+        <v>0.04703806079669862</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0835039748568811</v>
+        <v>0.08248176221063226</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2198,19 +2198,19 @@
         <v>21314</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15062</v>
+        <v>14551</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29948</v>
+        <v>29907</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03500600350398541</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02473807964230781</v>
+        <v>0.0238996072222628</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0491867146190002</v>
+        <v>0.04911931503364201</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -2219,19 +2219,19 @@
         <v>59536</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47155</v>
+        <v>47167</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>75337</v>
+        <v>73763</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04894421392805197</v>
+        <v>0.04894421392805196</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03876567028621684</v>
+        <v>0.03877574905465481</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06193412848898645</v>
+        <v>0.06064062423660956</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>125795</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>107647</v>
+        <v>104857</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146038</v>
+        <v>144213</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2070547984235469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1771833715513499</v>
+        <v>0.172590896083749</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2403739781724807</v>
+        <v>0.2373708786299013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>174</v>
@@ -2269,19 +2269,19 @@
         <v>104923</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>90042</v>
+        <v>92582</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>119096</v>
+        <v>121042</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1723276123098446</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1478869197632229</v>
+        <v>0.1520595615028589</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1956066858813537</v>
+        <v>0.1988032403690198</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>313</v>
@@ -2290,19 +2290,19 @@
         <v>230717</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>207150</v>
+        <v>208527</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>255417</v>
+        <v>255790</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1896724837329012</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1702974571398294</v>
+        <v>0.1714298295679413</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2099776438552594</v>
+        <v>0.2102845943545399</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>318322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>291105</v>
+        <v>294813</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>341066</v>
+        <v>342154</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5239492463977919</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4791502987615893</v>
+        <v>0.4852531832395485</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5613855496419242</v>
+        <v>0.5631758226638905</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>545</v>
@@ -2340,19 +2340,19 @@
         <v>324195</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>306724</v>
+        <v>306664</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>345221</v>
+        <v>342150</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5324666785026504</v>
+        <v>0.5324666785026505</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5037714294802532</v>
+        <v>0.5036740283025096</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5670006601001313</v>
+        <v>0.5619558973833086</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>899</v>
@@ -2361,19 +2361,19 @@
         <v>642517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>611606</v>
+        <v>613205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>675425</v>
+        <v>674497</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5282125542488258</v>
+        <v>0.5282125542488257</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5028002966362013</v>
+        <v>0.5041152572441335</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5552658037918233</v>
+        <v>0.5545031507131316</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>125205</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>107170</v>
+        <v>104515</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>147629</v>
+        <v>144224</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2060834416935712</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1763987893332128</v>
+        <v>0.1720287261901499</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2429925678500112</v>
+        <v>0.2373888298846291</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>250</v>
@@ -2411,19 +2411,19 @@
         <v>158424</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>142124</v>
+        <v>142180</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>176280</v>
+        <v>175333</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2601997056835194</v>
+        <v>0.2601997056835195</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2334278262463489</v>
+        <v>0.2335203986294967</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2895265895296982</v>
+        <v>0.2879724775064919</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>378</v>
@@ -2432,19 +2432,19 @@
         <v>283629</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>257254</v>
+        <v>257380</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>309656</v>
+        <v>309646</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.2331707480902211</v>
+        <v>0.233170748090221</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2114879371423317</v>
+        <v>0.2115919384575993</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2545675264763137</v>
+        <v>0.2545592698477272</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>19666</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12961</v>
+        <v>12824</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28507</v>
+        <v>28704</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04842865033172472</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03191873516368959</v>
+        <v>0.03158148133163724</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07020159099274455</v>
+        <v>0.070687060163138</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -2557,19 +2557,19 @@
         <v>15125</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10270</v>
+        <v>10250</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21167</v>
+        <v>22347</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03452778854339249</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02344495535650906</v>
+        <v>0.02339892103027708</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04832135201131377</v>
+        <v>0.05101553653263007</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>50</v>
@@ -2578,19 +2578,19 @@
         <v>34791</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26578</v>
+        <v>26639</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45463</v>
+        <v>45534</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04121493952002189</v>
+        <v>0.04121493952002188</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03148578762273748</v>
+        <v>0.03155753773749746</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0538575272682864</v>
+        <v>0.05394254992691047</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>79287</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>66716</v>
+        <v>67022</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>94151</v>
+        <v>93821</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1952511914330328</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1642959653614097</v>
+        <v>0.1650471247691769</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2318562724233586</v>
+        <v>0.2310447208627472</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>127</v>
@@ -2628,19 +2628,19 @@
         <v>66244</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>56285</v>
+        <v>55315</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>78608</v>
+        <v>77573</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1512253141644266</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1284906014394548</v>
+        <v>0.1262750381746644</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1794497919352685</v>
+        <v>0.1770860961863198</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>238</v>
@@ -2649,19 +2649,19 @@
         <v>145531</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>128723</v>
+        <v>129463</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>162712</v>
+        <v>162678</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1724044102993755</v>
+        <v>0.1724044102993754</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1524921672746568</v>
+        <v>0.1533687430390675</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1927574885123358</v>
+        <v>0.1927180796317102</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>209214</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>192704</v>
+        <v>193694</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>226285</v>
+        <v>227085</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5152095574241229</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4745516909710729</v>
+        <v>0.4769904552354506</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5572480952278023</v>
+        <v>0.5592191446645093</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>457</v>
@@ -2699,19 +2699,19 @@
         <v>240808</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>225122</v>
+        <v>225992</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>256257</v>
+        <v>255249</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5497260943244041</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5139174301596493</v>
+        <v>0.5159041493749865</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5849939185202723</v>
+        <v>0.5826935216582886</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>761</v>
@@ -2720,19 +2720,19 @@
         <v>450022</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>425082</v>
+        <v>427367</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>471027</v>
+        <v>472236</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.533121563112079</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5035768370299111</v>
+        <v>0.5062831358848995</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5580060225202907</v>
+        <v>0.5594382054989638</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>97909</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>84604</v>
+        <v>83675</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>113125</v>
+        <v>115042</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2411106008111194</v>
+        <v>0.2411106008111195</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.208344640667224</v>
+        <v>0.2060570715099001</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2785809844684947</v>
+        <v>0.2833019251684158</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>215</v>
@@ -2770,19 +2770,19 @@
         <v>115874</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>103322</v>
+        <v>101863</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>130067</v>
+        <v>128760</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2645208029677768</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2358680439214817</v>
+        <v>0.2325362550161025</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2969210715125206</v>
+        <v>0.2939379554247734</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>345</v>
@@ -2791,19 +2791,19 @@
         <v>213783</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>195962</v>
+        <v>195113</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>236012</v>
+        <v>233526</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2532590870685236</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2321481175701145</v>
+        <v>0.231141729614381</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2795929366894606</v>
+        <v>0.2766479028204013</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>11081</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6912</v>
+        <v>6090</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18452</v>
+        <v>17895</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0358111874824863</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02233842658766498</v>
+        <v>0.0196815776340035</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05963080677890353</v>
+        <v>0.05783082253045864</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>32</v>
@@ -2916,19 +2916,19 @@
         <v>18492</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13148</v>
+        <v>13074</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25882</v>
+        <v>25871</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03991036997284128</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02837794109607727</v>
+        <v>0.02821631032681359</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0558602983490611</v>
+        <v>0.05583706583917659</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>48</v>
@@ -2937,19 +2937,19 @@
         <v>29573</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22191</v>
+        <v>20995</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>38293</v>
+        <v>38520</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03826897506317384</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02871627377912024</v>
+        <v>0.02716885656269764</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04955296570686563</v>
+        <v>0.04984665589966078</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>62735</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51572</v>
+        <v>53228</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>75109</v>
+        <v>76397</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.202744471761448</v>
+        <v>0.2027444717614481</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.166668252264614</v>
+        <v>0.1720198182192723</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.242732267922371</v>
+        <v>0.24689722575954</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>169</v>
@@ -2987,19 +2987,19 @@
         <v>87698</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>74189</v>
+        <v>75304</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>100191</v>
+        <v>99734</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1892761585391644</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1601201775452183</v>
+        <v>0.162527230801872</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2162405936338022</v>
+        <v>0.2152537623127899</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>268</v>
@@ -3008,19 +3008,19 @@
         <v>150433</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>134756</v>
+        <v>133317</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>167771</v>
+        <v>167208</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.194669141363637</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1743826067521786</v>
+        <v>0.1725199000358955</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2171059136250276</v>
+        <v>0.2163771321651256</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>171129</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>156063</v>
+        <v>156621</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>185726</v>
+        <v>185288</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5530450185322715</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5043560602470188</v>
+        <v>0.506159299370694</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6002202771791088</v>
+        <v>0.5988042612512261</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>521</v>
@@ -3058,19 +3058,19 @@
         <v>268004</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>254434</v>
+        <v>252785</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>282240</v>
+        <v>283880</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.5784263552252683</v>
+        <v>0.5784263552252682</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5491377181766111</v>
+        <v>0.5455791910465372</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6091509854789888</v>
+        <v>0.6126916111204798</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>779</v>
@@ -3079,19 +3079,19 @@
         <v>439133</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>417514</v>
+        <v>417550</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>458362</v>
+        <v>460259</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5682631587961109</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5402878899854036</v>
+        <v>0.5403338103739445</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5931473187672239</v>
+        <v>0.5956020046635535</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>64485</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>52546</v>
+        <v>50944</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78263</v>
+        <v>76491</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2083993222237941</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1698150446094422</v>
+        <v>0.1646368811997964</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2529268293717159</v>
+        <v>0.2472004604475786</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>156</v>
@@ -3129,19 +3129,19 @@
         <v>89139</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>77294</v>
+        <v>76881</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>102650</v>
+        <v>102698</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.192387116262726</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1668214543978952</v>
+        <v>0.1659309444378045</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2215478575215668</v>
+        <v>0.2216497671579314</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>240</v>
@@ -3150,19 +3150,19 @@
         <v>153624</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>136588</v>
+        <v>136078</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>171894</v>
+        <v>172708</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1987987247770783</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1767528115593228</v>
+        <v>0.1760923001316116</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2224411396253395</v>
+        <v>0.2234942409270182</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>198818</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>172449</v>
+        <v>170359</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>239954</v>
+        <v>235977</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05635323512110369</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04887901885833602</v>
+        <v>0.04828670107128149</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06801291502449398</v>
+        <v>0.06688566662904691</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>199</v>
@@ -3275,19 +3275,19 @@
         <v>158776</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>136128</v>
+        <v>135916</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>183151</v>
+        <v>183484</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.04255902209217846</v>
+        <v>0.04255902209217847</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03648812576086877</v>
+        <v>0.03643149544268569</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04909245840560111</v>
+        <v>0.04918173469259161</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>371</v>
@@ -3296,19 +3296,19 @@
         <v>357595</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>319429</v>
+        <v>318510</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>398627</v>
+        <v>395812</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0492635606631669</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.04400569969095795</v>
+        <v>0.04387909420687835</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05491630910062913</v>
+        <v>0.05452847625473194</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>816110</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>766534</v>
+        <v>759925</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>876474</v>
+        <v>871970</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2313191705136227</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2172673348930682</v>
+        <v>0.2153939642843195</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2484288055731146</v>
+        <v>0.2471523025710798</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1006</v>
@@ -3346,19 +3346,19 @@
         <v>715142</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>673101</v>
+        <v>671112</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>757564</v>
+        <v>762915</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1916894122547657</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1804206141641533</v>
+        <v>0.1798872689515423</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2030602110352823</v>
+        <v>0.2044944798958436</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1780</v>
@@ -3367,19 +3367,19 @@
         <v>1531252</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1461651</v>
+        <v>1461569</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1601665</v>
+        <v>1605270</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2109510578628411</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2013624807231602</v>
+        <v>0.2013512494066652</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2206513209252878</v>
+        <v>0.2211480000127516</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>1713959</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1647798</v>
+        <v>1645216</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1783721</v>
+        <v>1782929</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4858066287056739</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4670537916748067</v>
+        <v>0.4663220227996347</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5055801013888402</v>
+        <v>0.5053553809477449</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2916</v>
@@ -3417,19 +3417,19 @@
         <v>1982819</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1923998</v>
+        <v>1920101</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2034388</v>
+        <v>2030123</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5314821643834031</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5157154053043993</v>
+        <v>0.5146710088693253</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5453047568122901</v>
+        <v>0.5441616836340526</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4636</v>
@@ -3438,19 +3438,19 @@
         <v>3696778</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3613270</v>
+        <v>3611993</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3782802</v>
+        <v>3782434</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5092820294384265</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4977775848025818</v>
+        <v>0.4976016585776268</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5211329807516328</v>
+        <v>0.5210823021276481</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>799182</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>740180</v>
+        <v>742823</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>857856</v>
+        <v>856363</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2265209656595998</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2097973648152211</v>
+        <v>0.2105465319501877</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2431515864794215</v>
+        <v>0.2427284847597286</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1235</v>
@@ -3488,19 +3488,19 @@
         <v>873997</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>826161</v>
+        <v>831674</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>918935</v>
+        <v>923040</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2342694012696528</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2214471232370492</v>
+        <v>0.2229248581133152</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2463148255634411</v>
+        <v>0.2474151426339053</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1940</v>
@@ -3509,19 +3509,19 @@
         <v>1673179</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1603323</v>
+        <v>1606432</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1748157</v>
+        <v>1752222</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2305033520355655</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2208797155327799</v>
+        <v>0.2213080473726835</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.240832592603001</v>
+        <v>0.2413926378815323</v>
       </c>
     </row>
     <row r="43">
